--- a/data/pca/factorExposure/factorExposure_2017-05-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02452122471246158</v>
+        <v>0.01023490881983634</v>
       </c>
       <c r="C2">
-        <v>-0.003093893486956243</v>
+        <v>-0.04262351783032456</v>
       </c>
       <c r="D2">
-        <v>0.03551789524902438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02944038259046301</v>
+      </c>
+      <c r="E2">
+        <v>-0.03623933552806079</v>
+      </c>
+      <c r="F2">
+        <v>0.007984805262635359</v>
+      </c>
+      <c r="G2">
+        <v>-0.09458016614872397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01692094553599462</v>
+        <v>0.04175824171276273</v>
       </c>
       <c r="C3">
-        <v>0.01235187016640033</v>
+        <v>-0.1023024014428724</v>
       </c>
       <c r="D3">
-        <v>0.1035440131386008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01827968406694934</v>
+      </c>
+      <c r="E3">
+        <v>-0.1044650633728168</v>
+      </c>
+      <c r="F3">
+        <v>0.002854047779434969</v>
+      </c>
+      <c r="G3">
+        <v>-0.1870387845104415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02440487069167338</v>
+        <v>0.05525705908275921</v>
       </c>
       <c r="C4">
-        <v>-0.001282190622881545</v>
+        <v>-0.06794208101223345</v>
       </c>
       <c r="D4">
-        <v>0.08554946893997344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02438486534288812</v>
+      </c>
+      <c r="E4">
+        <v>-0.02981643518115383</v>
+      </c>
+      <c r="F4">
+        <v>0.009148754300783898</v>
+      </c>
+      <c r="G4">
+        <v>-0.09932926613309553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01318448705900187</v>
+        <v>0.03651582575604158</v>
       </c>
       <c r="C6">
-        <v>-0.01039076006669113</v>
+        <v>-0.05258130039317928</v>
       </c>
       <c r="D6">
-        <v>0.0827360166350796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01680261742706269</v>
+      </c>
+      <c r="E6">
+        <v>-0.03450702681740872</v>
+      </c>
+      <c r="F6">
+        <v>0.006925671650127681</v>
+      </c>
+      <c r="G6">
+        <v>-0.08258639859810103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01023995483813096</v>
+        <v>0.02066938514056384</v>
       </c>
       <c r="C7">
-        <v>-0.005731075724472908</v>
+        <v>-0.03968829428369254</v>
       </c>
       <c r="D7">
-        <v>0.03722048156703475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01384631045219807</v>
+      </c>
+      <c r="E7">
+        <v>-0.004710708232869749</v>
+      </c>
+      <c r="F7">
+        <v>-0.004402289950848492</v>
+      </c>
+      <c r="G7">
+        <v>-0.1195828112328529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0004226171345234226</v>
+        <v>0.003166657457046572</v>
       </c>
       <c r="C8">
-        <v>-0.001193549597415498</v>
+        <v>-0.02470663255985696</v>
       </c>
       <c r="D8">
-        <v>0.003787142143895383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003998881705255661</v>
+      </c>
+      <c r="E8">
+        <v>-0.02833547899354141</v>
+      </c>
+      <c r="F8">
+        <v>0.00585085111018398</v>
+      </c>
+      <c r="G8">
+        <v>-0.07125131947696324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01714673561122545</v>
+        <v>0.03336765236043001</v>
       </c>
       <c r="C9">
-        <v>0.002987764076430556</v>
+        <v>-0.04879486464273312</v>
       </c>
       <c r="D9">
-        <v>0.06305552656263723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01647059338065674</v>
+      </c>
+      <c r="E9">
+        <v>-0.0198297411034447</v>
+      </c>
+      <c r="F9">
+        <v>0.006546191621565051</v>
+      </c>
+      <c r="G9">
+        <v>-0.099972897098507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.06048330832262271</v>
+        <v>0.09883597171908756</v>
       </c>
       <c r="C10">
-        <v>0.1815690872835453</v>
+        <v>0.1818442470100249</v>
       </c>
       <c r="D10">
-        <v>-0.08597363857298622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01506134198656626</v>
+      </c>
+      <c r="E10">
+        <v>-0.02204274931750821</v>
+      </c>
+      <c r="F10">
+        <v>-0.02282804537821381</v>
+      </c>
+      <c r="G10">
+        <v>-0.05835491870803866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0008501442359353427</v>
+        <v>0.03432497273695444</v>
       </c>
       <c r="C11">
-        <v>-0.006199444564335027</v>
+        <v>-0.05427268642939438</v>
       </c>
       <c r="D11">
-        <v>0.05593861906509036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002344239355185032</v>
+      </c>
+      <c r="E11">
+        <v>-0.01586898068926803</v>
+      </c>
+      <c r="F11">
+        <v>0.02067466400260827</v>
+      </c>
+      <c r="G11">
+        <v>-0.0920156315773018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004382983889584587</v>
+        <v>0.03586939183621755</v>
       </c>
       <c r="C12">
-        <v>-0.005352308853313336</v>
+        <v>-0.04895123731061213</v>
       </c>
       <c r="D12">
-        <v>0.04850946364127442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006435965743010996</v>
+      </c>
+      <c r="E12">
+        <v>-0.007320465350441035</v>
+      </c>
+      <c r="F12">
+        <v>0.001787826647432871</v>
+      </c>
+      <c r="G12">
+        <v>-0.08400324560928529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0248138949268233</v>
+        <v>0.01560551480571775</v>
       </c>
       <c r="C13">
-        <v>0.004198013373752053</v>
+        <v>-0.04172795508051356</v>
       </c>
       <c r="D13">
-        <v>0.04068749878659033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02641288344111037</v>
+      </c>
+      <c r="E13">
+        <v>-0.03625046162109108</v>
+      </c>
+      <c r="F13">
+        <v>0.005144722884537494</v>
+      </c>
+      <c r="G13">
+        <v>-0.1360805395004295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0098018668413704</v>
+        <v>0.008605734225386163</v>
       </c>
       <c r="C14">
-        <v>0.006083259938001144</v>
+        <v>-0.02865676552681312</v>
       </c>
       <c r="D14">
-        <v>0.01782545728677636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.009960557759798155</v>
+      </c>
+      <c r="E14">
+        <v>-0.006533543880223502</v>
+      </c>
+      <c r="F14">
+        <v>-0.008504323054866902</v>
+      </c>
+      <c r="G14">
+        <v>-0.1022006517307405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002127766392522744</v>
+        <v>0.03305248585301751</v>
       </c>
       <c r="C16">
-        <v>0.003006361519775594</v>
+        <v>-0.04725611031378479</v>
       </c>
       <c r="D16">
-        <v>0.04516132778419543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001860252716184444</v>
+      </c>
+      <c r="E16">
+        <v>-0.01383010257604543</v>
+      </c>
+      <c r="F16">
+        <v>0.002506720727196409</v>
+      </c>
+      <c r="G16">
+        <v>-0.09264350075465486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0123336928370853</v>
+        <v>0.02152417511348078</v>
       </c>
       <c r="C19">
-        <v>-0.004548212404774006</v>
+        <v>-0.05407451719769626</v>
       </c>
       <c r="D19">
-        <v>0.04851417874252923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01875756466671538</v>
+      </c>
+      <c r="E19">
+        <v>-0.0735860390635288</v>
+      </c>
+      <c r="F19">
+        <v>0.01898463913978702</v>
+      </c>
+      <c r="G19">
+        <v>-0.1331881078258374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01033760937075282</v>
+        <v>0.01493290733364393</v>
       </c>
       <c r="C20">
-        <v>-0.003490320241027951</v>
+        <v>-0.04010284675760924</v>
       </c>
       <c r="D20">
-        <v>0.03611444138744445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0141799208526328</v>
+      </c>
+      <c r="E20">
+        <v>-0.03498452403176999</v>
+      </c>
+      <c r="F20">
+        <v>-0.01409757430000688</v>
+      </c>
+      <c r="G20">
+        <v>-0.110477395656861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01499957599219036</v>
+        <v>0.01225598865912934</v>
       </c>
       <c r="C21">
-        <v>0.002163084712862251</v>
+        <v>-0.03953170711203337</v>
       </c>
       <c r="D21">
-        <v>0.03390254356517861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0187995358003536</v>
+      </c>
+      <c r="E21">
+        <v>-0.04875207823766488</v>
+      </c>
+      <c r="F21">
+        <v>0.0004270504558005402</v>
+      </c>
+      <c r="G21">
+        <v>-0.1287318106961761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001457118042959464</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0003324296159944564</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0005441057999864169</v>
+      </c>
+      <c r="E22">
+        <v>-0.002771391610670452</v>
+      </c>
+      <c r="F22">
+        <v>0.001248168660871009</v>
+      </c>
+      <c r="G22">
+        <v>-0.00433962307763313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001461497294233254</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0003320307554061599</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0005442308031905236</v>
+      </c>
+      <c r="E23">
+        <v>-0.002777461180114584</v>
+      </c>
+      <c r="F23">
+        <v>0.001246388248992011</v>
+      </c>
+      <c r="G23">
+        <v>-0.004353420818706977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.002091924465222238</v>
+        <v>0.02841414325199113</v>
       </c>
       <c r="C24">
-        <v>-0.01051962249762041</v>
+        <v>-0.05164530076900794</v>
       </c>
       <c r="D24">
-        <v>0.04941258483563081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007121989818253722</v>
+      </c>
+      <c r="E24">
+        <v>-0.01040029604391642</v>
+      </c>
+      <c r="F24">
+        <v>0.01269843972855291</v>
+      </c>
+      <c r="G24">
+        <v>-0.09223161277716321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01252922298076977</v>
+        <v>0.04267509159008841</v>
       </c>
       <c r="C25">
-        <v>0.002139114509989749</v>
+        <v>-0.05877886858816372</v>
       </c>
       <c r="D25">
-        <v>0.0590419594250159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01112798688894915</v>
+      </c>
+      <c r="E25">
+        <v>-0.002753411489980724</v>
+      </c>
+      <c r="F25">
+        <v>0.006470948678533669</v>
+      </c>
+      <c r="G25">
+        <v>-0.1022262091870527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02266115970656847</v>
+        <v>0.01426946668276006</v>
       </c>
       <c r="C26">
-        <v>-0.002555514321225054</v>
+        <v>-0.01123452943435659</v>
       </c>
       <c r="D26">
-        <v>0.001372561063237933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02400466862562797</v>
+      </c>
+      <c r="E26">
+        <v>-0.009377356257452216</v>
+      </c>
+      <c r="F26">
+        <v>-0.009880221570078196</v>
+      </c>
+      <c r="G26">
+        <v>-0.08107426462514422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09367101564404168</v>
+        <v>0.125966496607762</v>
       </c>
       <c r="C28">
-        <v>0.2361109520241292</v>
+        <v>0.2383946757133227</v>
       </c>
       <c r="D28">
-        <v>-0.1083772331927988</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.005964491143795609</v>
+      </c>
+      <c r="E28">
+        <v>-0.009843563686855237</v>
+      </c>
+      <c r="F28">
+        <v>-0.01690536189345362</v>
+      </c>
+      <c r="G28">
+        <v>-0.04602685504703084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01129757093731619</v>
+        <v>0.009555043594281222</v>
       </c>
       <c r="C29">
-        <v>0.01103219613953443</v>
+        <v>-0.02244402229506939</v>
       </c>
       <c r="D29">
-        <v>0.01948212583125306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.008960133178912904</v>
+      </c>
+      <c r="E29">
+        <v>-0.003620024655417919</v>
+      </c>
+      <c r="F29">
+        <v>-0.01691245113039578</v>
+      </c>
+      <c r="G29">
+        <v>-0.09643911589761307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01986675908387778</v>
+        <v>0.04112822646483522</v>
       </c>
       <c r="C30">
-        <v>-0.01935544335937251</v>
+        <v>-0.07118544250630184</v>
       </c>
       <c r="D30">
-        <v>0.1058312661737738</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02859176503911078</v>
+      </c>
+      <c r="E30">
+        <v>-0.05483129823460281</v>
+      </c>
+      <c r="F30">
+        <v>0.04164934054159528</v>
+      </c>
+      <c r="G30">
+        <v>-0.1267033908366572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01421065662730148</v>
+        <v>0.0527471672846436</v>
       </c>
       <c r="C31">
-        <v>0.02357703289434421</v>
+        <v>-0.03785894157114947</v>
       </c>
       <c r="D31">
-        <v>0.03649208104107422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003873554203919159</v>
+      </c>
+      <c r="E31">
+        <v>-0.0007393275502676415</v>
+      </c>
+      <c r="F31">
+        <v>-0.04110338354986833</v>
+      </c>
+      <c r="G31">
+        <v>-0.1009698874442192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001157984421676106</v>
+        <v>0.002012264310390088</v>
       </c>
       <c r="C32">
-        <v>0.02088328396760954</v>
+        <v>-0.02390137947321454</v>
       </c>
       <c r="D32">
-        <v>0.004215373802974838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.003510173609975307</v>
+      </c>
+      <c r="E32">
+        <v>-0.02847306909512811</v>
+      </c>
+      <c r="F32">
+        <v>0.03746457950262602</v>
+      </c>
+      <c r="G32">
+        <v>-0.07547084939791075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01288888168760976</v>
+        <v>0.02743436225668514</v>
       </c>
       <c r="C33">
-        <v>0.001291678242236559</v>
+        <v>-0.05113961706427612</v>
       </c>
       <c r="D33">
-        <v>0.04666545126803218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01567036784694215</v>
+      </c>
+      <c r="E33">
+        <v>-0.04199451757454403</v>
+      </c>
+      <c r="F33">
+        <v>0.01397140935832743</v>
+      </c>
+      <c r="G33">
+        <v>-0.1613569307815529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.002398577071037185</v>
+        <v>0.03994160272390459</v>
       </c>
       <c r="C34">
-        <v>0.008194933494469595</v>
+        <v>-0.06067635331989708</v>
       </c>
       <c r="D34">
-        <v>0.05607155147789573</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004689749920120533</v>
+      </c>
+      <c r="E34">
+        <v>-0.005097331202869517</v>
+      </c>
+      <c r="F34">
+        <v>0.02025991425590526</v>
+      </c>
+      <c r="G34">
+        <v>-0.09561285286412279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01518878522098435</v>
+        <v>0.01629044313465065</v>
       </c>
       <c r="C36">
-        <v>0.01055925024651844</v>
+        <v>-0.009383547941122243</v>
       </c>
       <c r="D36">
-        <v>0.007044734197875448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01240204274872852</v>
+      </c>
+      <c r="E36">
+        <v>-0.008244458653868391</v>
+      </c>
+      <c r="F36">
+        <v>-0.007443162710207052</v>
+      </c>
+      <c r="G36">
+        <v>-0.09058445690245397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001629351946080372</v>
+        <v>0.03122730922138713</v>
       </c>
       <c r="C38">
-        <v>0.02424292213869253</v>
+        <v>-0.03119572771627783</v>
       </c>
       <c r="D38">
-        <v>0.04976772642117667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007487765944591007</v>
+      </c>
+      <c r="E38">
+        <v>-0.005785791231809897</v>
+      </c>
+      <c r="F38">
+        <v>-0.0200654764984471</v>
+      </c>
+      <c r="G38">
+        <v>-0.08651446908791299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.001234261121110312</v>
+        <v>0.03666758603074158</v>
       </c>
       <c r="C39">
-        <v>-0.031775917046868</v>
+        <v>-0.08092958050469679</v>
       </c>
       <c r="D39">
-        <v>0.101643809565189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01145036193063777</v>
+      </c>
+      <c r="E39">
+        <v>-0.02687419377529768</v>
+      </c>
+      <c r="F39">
+        <v>0.02217580313466395</v>
+      </c>
+      <c r="G39">
+        <v>-0.08958237126977329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01317540147822846</v>
+        <v>0.01331048038751696</v>
       </c>
       <c r="C40">
-        <v>0.003807155534124229</v>
+        <v>-0.0406467299581464</v>
       </c>
       <c r="D40">
-        <v>0.04183255867050738</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01496195852414895</v>
+      </c>
+      <c r="E40">
+        <v>-0.032248846629313</v>
+      </c>
+      <c r="F40">
+        <v>-0.007605277882102418</v>
+      </c>
+      <c r="G40">
+        <v>-0.1205112408313045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0109223583060192</v>
+        <v>0.02074872112492329</v>
       </c>
       <c r="C41">
-        <v>0.02104946792070523</v>
+        <v>-0.002246218938798226</v>
       </c>
       <c r="D41">
-        <v>-0.009242315591224848</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004244678909727191</v>
+      </c>
+      <c r="E41">
+        <v>-0.005811305248306399</v>
+      </c>
+      <c r="F41">
+        <v>-0.01592311279155834</v>
+      </c>
+      <c r="G41">
+        <v>-0.0818770003555082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08248234652535993</v>
+        <v>0.01029961121438417</v>
       </c>
       <c r="C42">
-        <v>-0.05067376022089438</v>
+        <v>-0.03375063783962619</v>
       </c>
       <c r="D42">
-        <v>0.1675127240775116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08962278459137796</v>
+      </c>
+      <c r="E42">
+        <v>-0.01492481848536381</v>
+      </c>
+      <c r="F42">
+        <v>-0.0475743208581638</v>
+      </c>
+      <c r="G42">
+        <v>0.04193131353553926</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01120377759030563</v>
+        <v>0.03509836126126648</v>
       </c>
       <c r="C43">
-        <v>0.01942248178080981</v>
+        <v>-0.01831651103904288</v>
       </c>
       <c r="D43">
-        <v>-0.004075605656134115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005879494348096193</v>
+      </c>
+      <c r="E43">
+        <v>-0.02104260895128634</v>
+      </c>
+      <c r="F43">
+        <v>-0.006175691699139885</v>
+      </c>
+      <c r="G43">
+        <v>-0.1209339566468604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002209559542275328</v>
+        <v>0.01319113521240187</v>
       </c>
       <c r="C44">
-        <v>-0.003909495056850698</v>
+        <v>-0.05867859457745547</v>
       </c>
       <c r="D44">
-        <v>0.05846561052687024</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006676775345112701</v>
+      </c>
+      <c r="E44">
+        <v>-0.02175540096694307</v>
+      </c>
+      <c r="F44">
+        <v>-0.005726220127197421</v>
+      </c>
+      <c r="G44">
+        <v>-0.108356573608995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01152390590126201</v>
+        <v>0.007717939960699119</v>
       </c>
       <c r="C46">
-        <v>0.003211567018547799</v>
+        <v>-0.01730734176994388</v>
       </c>
       <c r="D46">
-        <v>0.002942212502613581</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01262722553100071</v>
+      </c>
+      <c r="E46">
+        <v>-0.003636852396291974</v>
+      </c>
+      <c r="F46">
+        <v>-0.01641885151661288</v>
+      </c>
+      <c r="G46">
+        <v>-0.1028587502971284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.009830929538645066</v>
+        <v>0.077391595322146</v>
       </c>
       <c r="C47">
-        <v>0.03011417384798794</v>
+        <v>-0.06767562209347613</v>
       </c>
       <c r="D47">
-        <v>0.07413703627450598</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005025867597235627</v>
+      </c>
+      <c r="E47">
+        <v>0.006874254055644334</v>
+      </c>
+      <c r="F47">
+        <v>-0.05582646268861223</v>
+      </c>
+      <c r="G47">
+        <v>-0.08869311150946266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006096281208776485</v>
+        <v>0.01931489664749493</v>
       </c>
       <c r="C48">
-        <v>0.01270350137246889</v>
+        <v>-0.01288035507870963</v>
       </c>
       <c r="D48">
-        <v>0.02060460007160752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002011584591607674</v>
+      </c>
+      <c r="E48">
+        <v>-0.00415996844477848</v>
+      </c>
+      <c r="F48">
+        <v>-0.02051146499153321</v>
+      </c>
+      <c r="G48">
+        <v>-0.09607587347664588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01382427048107126</v>
+        <v>0.07499586440947127</v>
       </c>
       <c r="C50">
-        <v>0.03528858288341986</v>
+        <v>-0.07200218133833401</v>
       </c>
       <c r="D50">
-        <v>0.07249804537170536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002189882741753048</v>
+      </c>
+      <c r="E50">
+        <v>0.003573496205552805</v>
+      </c>
+      <c r="F50">
+        <v>-0.05702961484895899</v>
+      </c>
+      <c r="G50">
+        <v>-0.0961353252826585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007691410243545257</v>
+        <v>0.01442909622607219</v>
       </c>
       <c r="C51">
-        <v>0.003589780088830789</v>
+        <v>-0.03617378362154619</v>
       </c>
       <c r="D51">
-        <v>0.0202276262009648</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01049815955991709</v>
+      </c>
+      <c r="E51">
+        <v>-0.02478791093808312</v>
+      </c>
+      <c r="F51">
+        <v>0.0235922891910842</v>
+      </c>
+      <c r="G51">
+        <v>-0.122166452965868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01333268753984918</v>
+        <v>0.08128824149404443</v>
       </c>
       <c r="C53">
-        <v>0.03017694063880998</v>
+        <v>-0.0857970152888337</v>
       </c>
       <c r="D53">
-        <v>0.1340041543605754</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003270722457426558</v>
+      </c>
+      <c r="E53">
+        <v>0.02526210599248419</v>
+      </c>
+      <c r="F53">
+        <v>-0.06394368100578464</v>
+      </c>
+      <c r="G53">
+        <v>-0.09491026900488031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01001386810247974</v>
+        <v>0.0325001172882402</v>
       </c>
       <c r="C54">
-        <v>0.03710006271475282</v>
+        <v>-0.01770811819975487</v>
       </c>
       <c r="D54">
-        <v>-0.001002129970702049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.00162958847075024</v>
+      </c>
+      <c r="E54">
+        <v>-0.01621054751191981</v>
+      </c>
+      <c r="F54">
+        <v>-0.006835846331359728</v>
+      </c>
+      <c r="G54">
+        <v>-0.1070869969444131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.006459739357545073</v>
+        <v>0.07171252728996533</v>
       </c>
       <c r="C55">
-        <v>0.01657842019791914</v>
+        <v>-0.06936494321183563</v>
       </c>
       <c r="D55">
-        <v>0.1087078481924729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004974044712566546</v>
+      </c>
+      <c r="E55">
+        <v>0.02394077476794056</v>
+      </c>
+      <c r="F55">
+        <v>-0.06383464827518236</v>
+      </c>
+      <c r="G55">
+        <v>-0.07050660107530785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01473002648613575</v>
+        <v>0.1363761726164366</v>
       </c>
       <c r="C56">
-        <v>0.04548250826138469</v>
+        <v>-0.1088463489669483</v>
       </c>
       <c r="D56">
-        <v>0.1651337004539053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01235392225514449</v>
+      </c>
+      <c r="E56">
+        <v>0.03248052473553968</v>
+      </c>
+      <c r="F56">
+        <v>-0.08016685146817162</v>
+      </c>
+      <c r="G56">
+        <v>-0.04788229044920517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02389383927474783</v>
+        <v>0.00532128264512142</v>
       </c>
       <c r="C57">
-        <v>-0.002703604571735853</v>
+        <v>-0.007415778280907102</v>
       </c>
       <c r="D57">
-        <v>0.03682647752934688</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02340706019551781</v>
+      </c>
+      <c r="E57">
+        <v>-0.02599110991731584</v>
+      </c>
+      <c r="F57">
+        <v>0.01068428886477205</v>
+      </c>
+      <c r="G57">
+        <v>-0.02663340307862863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01807971625037644</v>
+        <v>0.05127790473408223</v>
       </c>
       <c r="C58">
-        <v>0.03875839561623581</v>
+        <v>-0.05548673507404299</v>
       </c>
       <c r="D58">
-        <v>0.1631460404905682</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02197312991089624</v>
+      </c>
+      <c r="E58">
+        <v>-0.9164428583605307</v>
+      </c>
+      <c r="F58">
+        <v>-0.2667224870132123</v>
+      </c>
+      <c r="G58">
+        <v>0.2153425830460375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.09683544932377518</v>
+        <v>0.1604056289755136</v>
       </c>
       <c r="C59">
-        <v>0.2575825329940234</v>
+        <v>0.2031331005322049</v>
       </c>
       <c r="D59">
-        <v>-0.09291542357172036</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01144740835693642</v>
+      </c>
+      <c r="E59">
+        <v>-0.02241438129171693</v>
+      </c>
+      <c r="F59">
+        <v>-0.003035676814246312</v>
+      </c>
+      <c r="G59">
+        <v>-0.03767322019192174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.08085788204907839</v>
+        <v>0.2887795425228404</v>
       </c>
       <c r="C60">
-        <v>0.1569485025695362</v>
+        <v>-0.1072264984768466</v>
       </c>
       <c r="D60">
-        <v>0.1447619371293938</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01125599207055946</v>
+      </c>
+      <c r="E60">
+        <v>-0.001128246069304514</v>
+      </c>
+      <c r="F60">
+        <v>0.3411878164050222</v>
+      </c>
+      <c r="G60">
+        <v>0.1580688330906237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002495120722606722</v>
+        <v>0.03851064592539132</v>
       </c>
       <c r="C61">
-        <v>-0.004989031358515191</v>
+        <v>-0.0667390724415977</v>
       </c>
       <c r="D61">
-        <v>0.07562946269223006</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005317535625677891</v>
+      </c>
+      <c r="E61">
+        <v>-0.02073353901776033</v>
+      </c>
+      <c r="F61">
+        <v>0.01330623469460426</v>
+      </c>
+      <c r="G61">
+        <v>-0.09305037029957253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008082455882442403</v>
+        <v>0.01530459816333168</v>
       </c>
       <c r="C63">
-        <v>-0.0009244440652382152</v>
+        <v>-0.0302539271716578</v>
       </c>
       <c r="D63">
-        <v>0.02702537100937899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008584950402148383</v>
+      </c>
+      <c r="E63">
+        <v>-0.004205447971983549</v>
+      </c>
+      <c r="F63">
+        <v>-0.01966793633360183</v>
+      </c>
+      <c r="G63">
+        <v>-0.09454994396858836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01360713137814658</v>
+        <v>0.04847625468509034</v>
       </c>
       <c r="C64">
-        <v>0.01924826683169283</v>
+        <v>-0.04748637155204224</v>
       </c>
       <c r="D64">
-        <v>0.06790781265249256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.00614482363080646</v>
+      </c>
+      <c r="E64">
+        <v>-0.004550503147946923</v>
+      </c>
+      <c r="F64">
+        <v>0.003876792923483877</v>
+      </c>
+      <c r="G64">
+        <v>-0.09627363508646147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02034563002881948</v>
+        <v>0.07449423166370976</v>
       </c>
       <c r="C65">
-        <v>0.001750568166111414</v>
+        <v>-0.0599296403691662</v>
       </c>
       <c r="D65">
-        <v>0.1086152587547421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01648069972099376</v>
+      </c>
+      <c r="E65">
+        <v>-0.03688870352109438</v>
+      </c>
+      <c r="F65">
+        <v>0.02826394751625922</v>
+      </c>
+      <c r="G65">
+        <v>-0.03708835817775888</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.001923818490431184</v>
+        <v>0.05115167199730803</v>
       </c>
       <c r="C66">
-        <v>-0.03352762972570873</v>
+        <v>-0.108190760154489</v>
       </c>
       <c r="D66">
-        <v>0.1364208178572998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01140562351700956</v>
+      </c>
+      <c r="E66">
+        <v>-0.03716142188017308</v>
+      </c>
+      <c r="F66">
+        <v>0.03422466159384983</v>
+      </c>
+      <c r="G66">
+        <v>-0.1053382909048473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01175947269041119</v>
+        <v>0.0542654323955768</v>
       </c>
       <c r="C67">
-        <v>0.04100795207669144</v>
+        <v>-0.03456423702508986</v>
       </c>
       <c r="D67">
-        <v>0.06820006041659479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006005380034283119</v>
+      </c>
+      <c r="E67">
+        <v>0.002152760956814327</v>
+      </c>
+      <c r="F67">
+        <v>-0.01850064844864602</v>
+      </c>
+      <c r="G67">
+        <v>-0.07658106244813584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1129358933636213</v>
+        <v>0.1561743590084598</v>
       </c>
       <c r="C68">
-        <v>0.2490107931354118</v>
+        <v>0.2699614880200584</v>
       </c>
       <c r="D68">
-        <v>-0.1412727100309291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005982105650319661</v>
+      </c>
+      <c r="E68">
+        <v>-0.01464001603218079</v>
+      </c>
+      <c r="F68">
+        <v>-0.03465470921380592</v>
+      </c>
+      <c r="G68">
+        <v>-0.02633171652053143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.007555597236676009</v>
+        <v>0.08274490889897795</v>
       </c>
       <c r="C69">
-        <v>0.03335750176422145</v>
+        <v>-0.07067750181659738</v>
       </c>
       <c r="D69">
-        <v>0.08058953429522346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008959839234348149</v>
+      </c>
+      <c r="E69">
+        <v>0.02120743784237603</v>
+      </c>
+      <c r="F69">
+        <v>-0.03686767766120214</v>
+      </c>
+      <c r="G69">
+        <v>-0.1026198644024647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.08770156948575429</v>
+        <v>0.141424417487586</v>
       </c>
       <c r="C71">
-        <v>0.2087926052313128</v>
+        <v>0.2283587035004588</v>
       </c>
       <c r="D71">
-        <v>-0.08908447474116987</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002610852008120035</v>
+      </c>
+      <c r="E71">
+        <v>-0.03700721359071527</v>
+      </c>
+      <c r="F71">
+        <v>-0.02090726213481742</v>
+      </c>
+      <c r="G71">
+        <v>-0.06766066579730472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002005604464386003</v>
+        <v>0.08503832183504466</v>
       </c>
       <c r="C72">
-        <v>0.01917221452697581</v>
+        <v>-0.0711255560419795</v>
       </c>
       <c r="D72">
-        <v>0.1048518270553475</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008609127032728944</v>
+      </c>
+      <c r="E72">
+        <v>0.005729773912005658</v>
+      </c>
+      <c r="F72">
+        <v>0.04179997150745011</v>
+      </c>
+      <c r="G72">
+        <v>-0.08961536422382162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.09553223863104925</v>
+        <v>0.3773959010147623</v>
       </c>
       <c r="C73">
-        <v>0.1644432384580424</v>
+        <v>-0.1195210296539993</v>
       </c>
       <c r="D73">
-        <v>0.2788785583499824</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01978921759299503</v>
+      </c>
+      <c r="E73">
+        <v>-0.07839222282175799</v>
+      </c>
+      <c r="F73">
+        <v>0.5758067142426412</v>
+      </c>
+      <c r="G73">
+        <v>0.2835858337734334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01387593627515454</v>
+        <v>0.1045273384250564</v>
       </c>
       <c r="C74">
-        <v>0.04572295568601046</v>
+        <v>-0.1096047823171474</v>
       </c>
       <c r="D74">
-        <v>0.1803299581679618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009331967295729608</v>
+      </c>
+      <c r="E74">
+        <v>0.007566921814201445</v>
+      </c>
+      <c r="F74">
+        <v>-0.06888929414651232</v>
+      </c>
+      <c r="G74">
+        <v>-0.08685890314085409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.03514291587926703</v>
+        <v>0.2465791261343191</v>
       </c>
       <c r="C75">
-        <v>0.1127666661749885</v>
+        <v>-0.1524171744036805</v>
       </c>
       <c r="D75">
-        <v>0.3070815930675986</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03049578830780469</v>
+      </c>
+      <c r="E75">
+        <v>0.06810372522263219</v>
+      </c>
+      <c r="F75">
+        <v>-0.1679413288337577</v>
+      </c>
+      <c r="G75">
+        <v>0.01115008823980183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01108710145407618</v>
+        <v>0.1179129947881321</v>
       </c>
       <c r="C76">
-        <v>0.05511015334630512</v>
+        <v>-0.1091866651816703</v>
       </c>
       <c r="D76">
-        <v>0.2171611495533632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01819088163702952</v>
+      </c>
+      <c r="E76">
+        <v>0.03087841518691445</v>
+      </c>
+      <c r="F76">
+        <v>-0.1070204834956426</v>
+      </c>
+      <c r="G76">
+        <v>-0.05961443884762939</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01634285819345633</v>
+        <v>0.06791437362775939</v>
       </c>
       <c r="C77">
-        <v>0.009919500658547001</v>
+        <v>-0.05978549880226278</v>
       </c>
       <c r="D77">
-        <v>0.07028889037209185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01083408779372634</v>
+      </c>
+      <c r="E77">
+        <v>-0.04419499942143406</v>
+      </c>
+      <c r="F77">
+        <v>0.01017609841919373</v>
+      </c>
+      <c r="G77">
+        <v>-0.06247186769522679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004893173363708805</v>
+        <v>0.04158541920449216</v>
       </c>
       <c r="C78">
-        <v>0.0001767615903839468</v>
+        <v>-0.05175602805646853</v>
       </c>
       <c r="D78">
-        <v>0.05891233273472448</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005560717614876102</v>
+      </c>
+      <c r="E78">
+        <v>-0.0260755674597401</v>
+      </c>
+      <c r="F78">
+        <v>0.03643801054763126</v>
+      </c>
+      <c r="G78">
+        <v>-0.09835013855311368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02254541530706779</v>
+        <v>0.04339959379273025</v>
       </c>
       <c r="C80">
-        <v>0.02355077041672768</v>
+        <v>-0.05114278552143252</v>
       </c>
       <c r="D80">
-        <v>0.08741238850700242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0130371145504819</v>
+      </c>
+      <c r="E80">
+        <v>-0.02376882964604312</v>
+      </c>
+      <c r="F80">
+        <v>0.01407204645489225</v>
+      </c>
+      <c r="G80">
+        <v>-0.05112124016631268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02033113380504641</v>
+        <v>0.1359202213929986</v>
       </c>
       <c r="C81">
-        <v>0.06299370896998314</v>
+        <v>-0.09559453795699195</v>
       </c>
       <c r="D81">
-        <v>0.1753494650360823</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01485631749595136</v>
+      </c>
+      <c r="E81">
+        <v>0.03702806160954503</v>
+      </c>
+      <c r="F81">
+        <v>-0.1262954727169981</v>
+      </c>
+      <c r="G81">
+        <v>-0.02338100748546734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1317223417119593</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07752214431711772</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.008803900410003396</v>
+      </c>
+      <c r="E82">
+        <v>0.09806944068277874</v>
+      </c>
+      <c r="F82">
+        <v>-0.04772811411247593</v>
+      </c>
+      <c r="G82">
+        <v>-0.0762486155765118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01076112281046214</v>
+        <v>0.03587748578927039</v>
       </c>
       <c r="C83">
-        <v>0.01556229312607811</v>
+        <v>-0.03008233275689541</v>
       </c>
       <c r="D83">
-        <v>0.03700972250864583</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006076682624940101</v>
+      </c>
+      <c r="E83">
+        <v>-0.03180469188803998</v>
+      </c>
+      <c r="F83">
+        <v>0.03121758122297814</v>
+      </c>
+      <c r="G83">
+        <v>-0.06254082545681595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.03552107780559112</v>
+        <v>0.2117920869640219</v>
       </c>
       <c r="C85">
-        <v>0.07850766876669764</v>
+        <v>-0.1464815904226402</v>
       </c>
       <c r="D85">
-        <v>0.2686377111889143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01762268467423316</v>
+      </c>
+      <c r="E85">
+        <v>0.1062905690380812</v>
+      </c>
+      <c r="F85">
+        <v>-0.1261306853043405</v>
+      </c>
+      <c r="G85">
+        <v>0.06404068904424684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01123519355156586</v>
+        <v>0.01413775610335415</v>
       </c>
       <c r="C86">
-        <v>0.01273481378942553</v>
+        <v>-0.02872693184791071</v>
       </c>
       <c r="D86">
-        <v>0.06642962652758709</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01183184682346737</v>
+      </c>
+      <c r="E86">
+        <v>-0.05341612999326056</v>
+      </c>
+      <c r="F86">
+        <v>0.02386251282217748</v>
+      </c>
+      <c r="G86">
+        <v>-0.1928332870416045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004774545210594549</v>
+        <v>0.02119472646303866</v>
       </c>
       <c r="C87">
-        <v>-0.01246899896106278</v>
+        <v>-0.02340592026885535</v>
       </c>
       <c r="D87">
-        <v>0.04873329090638109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01175675033453917</v>
+      </c>
+      <c r="E87">
+        <v>-0.09146650896838811</v>
+      </c>
+      <c r="F87">
+        <v>0.00945576679680336</v>
+      </c>
+      <c r="G87">
+        <v>-0.1207105302484985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03230856084550728</v>
+        <v>0.09343107219964526</v>
       </c>
       <c r="C88">
-        <v>0.01857377983007544</v>
+        <v>-0.06825702579026219</v>
       </c>
       <c r="D88">
-        <v>0.05723436584419128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02212195808488456</v>
+      </c>
+      <c r="E88">
+        <v>0.00387465368831593</v>
+      </c>
+      <c r="F88">
+        <v>-0.02048865131532675</v>
+      </c>
+      <c r="G88">
+        <v>-0.0927603367927269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1639093506437617</v>
+        <v>0.233062503275651</v>
       </c>
       <c r="C89">
-        <v>0.3827846852046357</v>
+        <v>0.3665795635052436</v>
       </c>
       <c r="D89">
-        <v>-0.1630332082663775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.000457448437645728</v>
+      </c>
+      <c r="E89">
+        <v>0.01214849573281624</v>
+      </c>
+      <c r="F89">
+        <v>-0.02330569083044152</v>
+      </c>
+      <c r="G89">
+        <v>-0.06857103814054129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1289377469899009</v>
+        <v>0.2079182265405559</v>
       </c>
       <c r="C90">
-        <v>0.3078982576597928</v>
+        <v>0.3188567404273701</v>
       </c>
       <c r="D90">
-        <v>-0.1558802466588478</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004254497959096236</v>
+      </c>
+      <c r="E90">
+        <v>0.002200973352923978</v>
+      </c>
+      <c r="F90">
+        <v>-0.05278885788415293</v>
+      </c>
+      <c r="G90">
+        <v>-0.04406874159815353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.02884577895684868</v>
+        <v>0.1852325425628915</v>
       </c>
       <c r="C91">
-        <v>0.09843245125260611</v>
+        <v>-0.1400316742672704</v>
       </c>
       <c r="D91">
-        <v>0.2283385400390434</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02205163874345861</v>
+      </c>
+      <c r="E91">
+        <v>0.06614422678230364</v>
+      </c>
+      <c r="F91">
+        <v>-0.1443282306323898</v>
+      </c>
+      <c r="G91">
+        <v>-0.03495571311994675</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.09844054158794721</v>
+        <v>0.2000683869566026</v>
       </c>
       <c r="C92">
-        <v>0.3146174487572384</v>
+        <v>0.257645380268681</v>
       </c>
       <c r="D92">
-        <v>-0.04896985220942061</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03765055415630465</v>
+      </c>
+      <c r="E92">
+        <v>-0.04457008481770875</v>
+      </c>
+      <c r="F92">
+        <v>-0.06205104735033121</v>
+      </c>
+      <c r="G92">
+        <v>-0.1185930455992898</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1332037964858184</v>
+        <v>0.232281306824598</v>
       </c>
       <c r="C93">
-        <v>0.3310643994985495</v>
+        <v>0.3132044994811579</v>
       </c>
       <c r="D93">
-        <v>-0.1197255704835733</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0108951540980052</v>
+      </c>
+      <c r="E93">
+        <v>-0.009805938193488744</v>
+      </c>
+      <c r="F93">
+        <v>-0.04277886484720943</v>
+      </c>
+      <c r="G93">
+        <v>-0.05999058533393314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.06733837713059043</v>
+        <v>0.3190054265869415</v>
       </c>
       <c r="C94">
-        <v>0.1392942157958418</v>
+        <v>-0.1782885423366391</v>
       </c>
       <c r="D94">
-        <v>0.2880066154014705</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01772073192388118</v>
+      </c>
+      <c r="E94">
+        <v>0.20929382995209</v>
+      </c>
+      <c r="F94">
+        <v>-0.4774594551804217</v>
+      </c>
+      <c r="G94">
+        <v>0.431185931549697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002643953977814677</v>
+        <v>0.1011336829528362</v>
       </c>
       <c r="C95">
-        <v>0.01521177553638076</v>
+        <v>-0.08970867649095955</v>
       </c>
       <c r="D95">
-        <v>0.1306235093729784</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01142985288230976</v>
+      </c>
+      <c r="E95">
+        <v>-0.07474939170294986</v>
+      </c>
+      <c r="F95">
+        <v>0.1978490647058004</v>
+      </c>
+      <c r="G95">
+        <v>0.05385373919863874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.04415455410746272</v>
+        <v>0.1972365970186018</v>
       </c>
       <c r="C98">
-        <v>0.1364755916368147</v>
+        <v>-0.04639948291428618</v>
       </c>
       <c r="D98">
-        <v>0.1597062243619142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01362658437461268</v>
+      </c>
+      <c r="E98">
+        <v>-0.07343045650123303</v>
+      </c>
+      <c r="F98">
+        <v>0.2384264671583307</v>
+      </c>
+      <c r="G98">
+        <v>0.005525475339672755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01107877413556648</v>
+        <v>0.009338842310533791</v>
       </c>
       <c r="C101">
-        <v>0.01090716687885664</v>
+        <v>-0.02246323168991892</v>
       </c>
       <c r="D101">
-        <v>0.01936890166704625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.00880419163347099</v>
+      </c>
+      <c r="E101">
+        <v>-0.003449948594855458</v>
+      </c>
+      <c r="F101">
+        <v>-0.01785448125106168</v>
+      </c>
+      <c r="G101">
+        <v>-0.09533978488061273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02491325285979776</v>
+        <v>0.1158452142703981</v>
       </c>
       <c r="C102">
-        <v>0.03805903763196681</v>
+        <v>-0.08379598161856888</v>
       </c>
       <c r="D102">
-        <v>0.1318828610539427</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0008963246078092134</v>
+      </c>
+      <c r="E102">
+        <v>0.03601624332725729</v>
+      </c>
+      <c r="F102">
+        <v>-0.04079420625362878</v>
+      </c>
+      <c r="G102">
+        <v>-0.01889133497230409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9179430249229336</v>
+        <v>0.02112649252624752</v>
       </c>
       <c r="C104">
-        <v>-0.37181462212972</v>
+        <v>0.02924652592306596</v>
       </c>
       <c r="D104">
-        <v>-0.04220218913230425</v>
+        <v>0.9879325877525102</v>
+      </c>
+      <c r="E104">
+        <v>0.04856942941837731</v>
+      </c>
+      <c r="F104">
+        <v>-0.03252066414107337</v>
+      </c>
+      <c r="G104">
+        <v>0.03670450852484004</v>
       </c>
     </row>
   </sheetData>
